--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,7 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Plxna1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.2770233047136</v>
+        <v>30.92088766666667</v>
       </c>
       <c r="H2">
-        <v>20.2770233047136</v>
+        <v>92.76266300000002</v>
       </c>
       <c r="I2">
-        <v>0.3517085431918275</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="J2">
-        <v>0.3517085431918275</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.52056440477308</v>
+        <v>4.665097333333334</v>
       </c>
       <c r="N2">
-        <v>3.52056440477308</v>
+        <v>13.995292</v>
       </c>
       <c r="O2">
-        <v>0.04938495720692135</v>
+        <v>0.06181862018736071</v>
       </c>
       <c r="P2">
-        <v>0.04938495720692135</v>
+        <v>0.06181862018736071</v>
       </c>
       <c r="Q2">
-        <v>71.38656648132891</v>
+        <v>144.2489505980663</v>
       </c>
       <c r="R2">
-        <v>71.38656648132891</v>
+        <v>1298.240555382596</v>
       </c>
       <c r="S2">
-        <v>0.01736911135483705</v>
+        <v>0.02716608791005324</v>
       </c>
       <c r="T2">
-        <v>0.01736911135483705</v>
+        <v>0.02716608791005323</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.2770233047136</v>
+        <v>30.92088766666667</v>
       </c>
       <c r="H3">
-        <v>20.2770233047136</v>
+        <v>92.76266300000002</v>
       </c>
       <c r="I3">
-        <v>0.3517085431918275</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="J3">
-        <v>0.3517085431918275</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.2642187444079</v>
+        <v>16.41004366666667</v>
       </c>
       <c r="N3">
-        <v>16.2642187444079</v>
+        <v>49.230131</v>
       </c>
       <c r="O3">
-        <v>0.2281474372710313</v>
+        <v>0.2174544675497312</v>
       </c>
       <c r="P3">
-        <v>0.2281474372710313</v>
+        <v>0.2174544675497312</v>
       </c>
       <c r="Q3">
-        <v>329.7899425133187</v>
+        <v>507.4131168220949</v>
       </c>
       <c r="R3">
-        <v>329.7899425133187</v>
+        <v>4566.718051398854</v>
       </c>
       <c r="S3">
-        <v>0.08024140279554327</v>
+        <v>0.09555999735978619</v>
       </c>
       <c r="T3">
-        <v>0.08024140279554327</v>
+        <v>0.09555999735978619</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.2770233047136</v>
+        <v>30.92088766666667</v>
       </c>
       <c r="H4">
-        <v>20.2770233047136</v>
+        <v>92.76266300000002</v>
       </c>
       <c r="I4">
-        <v>0.3517085431918275</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="J4">
-        <v>0.3517085431918275</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.3925551656488</v>
+        <v>17.65804266666667</v>
       </c>
       <c r="N4">
-        <v>15.3925551656488</v>
+        <v>52.974128</v>
       </c>
       <c r="O4">
-        <v>0.2159201169932123</v>
+        <v>0.2339920809504103</v>
       </c>
       <c r="P4">
-        <v>0.2159201169932123</v>
+        <v>0.2339920809504103</v>
       </c>
       <c r="Q4">
-        <v>312.1151998129504</v>
+        <v>546.0023537092072</v>
       </c>
       <c r="R4">
-        <v>312.1151998129504</v>
+        <v>4914.021183382865</v>
       </c>
       <c r="S4">
-        <v>0.07594094979349164</v>
+        <v>0.102827423551178</v>
       </c>
       <c r="T4">
-        <v>0.07594094979349164</v>
+        <v>0.102827423551178</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.2770233047136</v>
+        <v>30.92088766666667</v>
       </c>
       <c r="H5">
-        <v>20.2770233047136</v>
+        <v>92.76266300000002</v>
       </c>
       <c r="I5">
-        <v>0.3517085431918275</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="J5">
-        <v>0.3517085431918275</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.1949830623744</v>
+        <v>13.44741733333333</v>
       </c>
       <c r="N5">
-        <v>13.1949830623744</v>
+        <v>40.342252</v>
       </c>
       <c r="O5">
-        <v>0.1850935244922506</v>
+        <v>0.1781958071250527</v>
       </c>
       <c r="P5">
-        <v>0.1850935244922506</v>
+        <v>0.1781958071250527</v>
       </c>
       <c r="Q5">
-        <v>267.5549790610669</v>
+        <v>415.8060807707863</v>
       </c>
       <c r="R5">
-        <v>267.5549790610669</v>
+        <v>3742.254726937077</v>
       </c>
       <c r="S5">
-        <v>0.06509897385341029</v>
+        <v>0.07830784554702545</v>
       </c>
       <c r="T5">
-        <v>0.06509897385341029</v>
+        <v>0.07830784554702544</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.2770233047136</v>
+        <v>30.92088766666667</v>
       </c>
       <c r="H6">
-        <v>20.2770233047136</v>
+        <v>92.76266300000002</v>
       </c>
       <c r="I6">
-        <v>0.3517085431918275</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="J6">
-        <v>0.3517085431918275</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.92480395946743</v>
+        <v>5.111344666666667</v>
       </c>
       <c r="N6">
-        <v>4.92480395946743</v>
+        <v>15.334034</v>
       </c>
       <c r="O6">
-        <v>0.06908302329621836</v>
+        <v>0.06773197899594202</v>
       </c>
       <c r="P6">
-        <v>0.06908302329621836</v>
+        <v>0.06773197899594202</v>
       </c>
       <c r="Q6">
-        <v>99.8603646572669</v>
+        <v>158.0473142636158</v>
       </c>
       <c r="R6">
-        <v>99.8603646572669</v>
+        <v>1422.425828372542</v>
       </c>
       <c r="S6">
-        <v>0.02429708948280004</v>
+        <v>0.02976470342024626</v>
       </c>
       <c r="T6">
-        <v>0.02429708948280004</v>
+        <v>0.02976470342024626</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.2770233047136</v>
+        <v>30.92088766666667</v>
       </c>
       <c r="H7">
-        <v>20.2770233047136</v>
+        <v>92.76266300000002</v>
       </c>
       <c r="I7">
-        <v>0.3517085431918275</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="J7">
-        <v>0.3517085431918275</v>
+        <v>0.4394483058295039</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.9910685565018</v>
+        <v>18.172329</v>
       </c>
       <c r="N7">
-        <v>17.9910685565018</v>
+        <v>54.516987</v>
       </c>
       <c r="O7">
-        <v>0.2523709407403662</v>
+        <v>0.2408070451915031</v>
       </c>
       <c r="P7">
-        <v>0.2523709407403662</v>
+        <v>0.2408070451915031</v>
       </c>
       <c r="Q7">
-        <v>364.8053163968871</v>
+        <v>561.9045436507091</v>
       </c>
       <c r="R7">
-        <v>364.8053163968871</v>
+        <v>5057.140892856382</v>
       </c>
       <c r="S7">
-        <v>0.08876101591174522</v>
+        <v>0.1058222480412148</v>
       </c>
       <c r="T7">
-        <v>0.08876101591174522</v>
+        <v>0.1058222480412148</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.6420205829656</v>
+        <v>17.82562466666667</v>
       </c>
       <c r="H8">
-        <v>17.6420205829656</v>
+        <v>53.476874</v>
       </c>
       <c r="I8">
-        <v>0.3060039565448783</v>
+        <v>0.2533381526612473</v>
       </c>
       <c r="J8">
-        <v>0.3060039565448783</v>
+        <v>0.2533381526612474</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.52056440477308</v>
+        <v>4.665097333333334</v>
       </c>
       <c r="N8">
-        <v>3.52056440477308</v>
+        <v>13.995292</v>
       </c>
       <c r="O8">
-        <v>0.04938495720692135</v>
+        <v>0.06181862018736071</v>
       </c>
       <c r="P8">
-        <v>0.04938495720692135</v>
+        <v>0.06181862018736071</v>
       </c>
       <c r="Q8">
-        <v>62.10986969266271</v>
+        <v>83.15827409746755</v>
       </c>
       <c r="R8">
-        <v>62.10986969266271</v>
+        <v>748.424466877208</v>
       </c>
       <c r="S8">
-        <v>0.01511199229911744</v>
+        <v>0.01566101503833325</v>
       </c>
       <c r="T8">
-        <v>0.01511199229911744</v>
+        <v>0.01566101503833326</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.6420205829656</v>
+        <v>17.82562466666667</v>
       </c>
       <c r="H9">
-        <v>17.6420205829656</v>
+        <v>53.476874</v>
       </c>
       <c r="I9">
-        <v>0.3060039565448783</v>
+        <v>0.2533381526612473</v>
       </c>
       <c r="J9">
-        <v>0.3060039565448783</v>
+        <v>0.2533381526612474</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.2642187444079</v>
+        <v>16.41004366666667</v>
       </c>
       <c r="N9">
-        <v>16.2642187444079</v>
+        <v>49.230131</v>
       </c>
       <c r="O9">
-        <v>0.2281474372710313</v>
+        <v>0.2174544675497312</v>
       </c>
       <c r="P9">
-        <v>0.2281474372710313</v>
+        <v>0.2174544675497312</v>
       </c>
       <c r="Q9">
-        <v>286.933681854699</v>
+        <v>292.5192791656104</v>
       </c>
       <c r="R9">
-        <v>286.933681854699</v>
+        <v>2632.673512490494</v>
       </c>
       <c r="S9">
-        <v>0.06981401848051003</v>
+        <v>0.05508951309698405</v>
       </c>
       <c r="T9">
-        <v>0.06981401848051003</v>
+        <v>0.05508951309698406</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.6420205829656</v>
+        <v>17.82562466666667</v>
       </c>
       <c r="H10">
-        <v>17.6420205829656</v>
+        <v>53.476874</v>
       </c>
       <c r="I10">
-        <v>0.3060039565448783</v>
+        <v>0.2533381526612473</v>
       </c>
       <c r="J10">
-        <v>0.3060039565448783</v>
+        <v>0.2533381526612474</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.3925551656488</v>
+        <v>17.65804266666667</v>
       </c>
       <c r="N10">
-        <v>15.3925551656488</v>
+        <v>52.974128</v>
       </c>
       <c r="O10">
-        <v>0.2159201169932123</v>
+        <v>0.2339920809504103</v>
       </c>
       <c r="P10">
-        <v>0.2159201169932123</v>
+        <v>0.2339920809504103</v>
       </c>
       <c r="Q10">
-        <v>271.5557750568096</v>
+        <v>314.7656409239858</v>
       </c>
       <c r="R10">
-        <v>271.5557750568096</v>
+        <v>2832.890768315872</v>
       </c>
       <c r="S10">
-        <v>0.06607241009755598</v>
+        <v>0.05927912152533799</v>
       </c>
       <c r="T10">
-        <v>0.06607241009755598</v>
+        <v>0.05927912152533801</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.6420205829656</v>
+        <v>17.82562466666667</v>
       </c>
       <c r="H11">
-        <v>17.6420205829656</v>
+        <v>53.476874</v>
       </c>
       <c r="I11">
-        <v>0.3060039565448783</v>
+        <v>0.2533381526612473</v>
       </c>
       <c r="J11">
-        <v>0.3060039565448783</v>
+        <v>0.2533381526612474</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.1949830623744</v>
+        <v>13.44741733333333</v>
       </c>
       <c r="N11">
-        <v>13.1949830623744</v>
+        <v>40.342252</v>
       </c>
       <c r="O11">
-        <v>0.1850935244922506</v>
+        <v>0.1781958071250527</v>
       </c>
       <c r="P11">
-        <v>0.1850935244922506</v>
+        <v>0.1781958071250527</v>
       </c>
       <c r="Q11">
-        <v>232.7861627782916</v>
+        <v>239.7086141200276</v>
       </c>
       <c r="R11">
-        <v>232.7861627782916</v>
+        <v>2157.377527080248</v>
       </c>
       <c r="S11">
-        <v>0.05663935082546502</v>
+        <v>0.04514379658904078</v>
       </c>
       <c r="T11">
-        <v>0.05663935082546502</v>
+        <v>0.04514379658904079</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.6420205829656</v>
+        <v>17.82562466666667</v>
       </c>
       <c r="H12">
-        <v>17.6420205829656</v>
+        <v>53.476874</v>
       </c>
       <c r="I12">
-        <v>0.3060039565448783</v>
+        <v>0.2533381526612473</v>
       </c>
       <c r="J12">
-        <v>0.3060039565448783</v>
+        <v>0.2533381526612474</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.92480395946743</v>
+        <v>5.111344666666667</v>
       </c>
       <c r="N12">
-        <v>4.92480395946743</v>
+        <v>15.334034</v>
       </c>
       <c r="O12">
-        <v>0.06908302329621836</v>
+        <v>0.06773197899594202</v>
       </c>
       <c r="P12">
-        <v>0.06908302329621836</v>
+        <v>0.06773197899594202</v>
       </c>
       <c r="Q12">
-        <v>86.88349281999488</v>
+        <v>91.11291156996845</v>
       </c>
       <c r="R12">
-        <v>86.88349281999488</v>
+        <v>820.0162041297161</v>
       </c>
       <c r="S12">
-        <v>0.02113967845872482</v>
+        <v>0.01715909443492236</v>
       </c>
       <c r="T12">
-        <v>0.02113967845872482</v>
+        <v>0.01715909443492236</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.6420205829656</v>
+        <v>17.82562466666667</v>
       </c>
       <c r="H13">
-        <v>17.6420205829656</v>
+        <v>53.476874</v>
       </c>
       <c r="I13">
-        <v>0.3060039565448783</v>
+        <v>0.2533381526612473</v>
       </c>
       <c r="J13">
-        <v>0.3060039565448783</v>
+        <v>0.2533381526612474</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.9910685565018</v>
+        <v>18.172329</v>
       </c>
       <c r="N13">
-        <v>17.9910685565018</v>
+        <v>54.516987</v>
       </c>
       <c r="O13">
-        <v>0.2523709407403662</v>
+        <v>0.2408070451915031</v>
       </c>
       <c r="P13">
-        <v>0.2523709407403662</v>
+        <v>0.2408070451915031</v>
       </c>
       <c r="Q13">
-        <v>317.39880178335</v>
+        <v>323.933116073182</v>
       </c>
       <c r="R13">
-        <v>317.39880178335</v>
+        <v>2915.398044658638</v>
       </c>
       <c r="S13">
-        <v>0.07722650638350509</v>
+        <v>0.06100561197662889</v>
       </c>
       <c r="T13">
-        <v>0.07722650638350509</v>
+        <v>0.0610056119766289</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.629152343248192</v>
+        <v>0.3620696666666667</v>
       </c>
       <c r="H14">
-        <v>0.629152343248192</v>
+        <v>1.086209</v>
       </c>
       <c r="I14">
-        <v>0.01091275828627705</v>
+        <v>0.005145741717513645</v>
       </c>
       <c r="J14">
-        <v>0.01091275828627705</v>
+        <v>0.005145741717513645</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.52056440477308</v>
+        <v>4.665097333333334</v>
       </c>
       <c r="N14">
-        <v>3.52056440477308</v>
+        <v>13.995292</v>
       </c>
       <c r="O14">
-        <v>0.04938495720692135</v>
+        <v>0.06181862018736071</v>
       </c>
       <c r="P14">
-        <v>0.04938495720692135</v>
+        <v>0.06181862018736071</v>
       </c>
       <c r="Q14">
-        <v>2.21497134481916</v>
+        <v>1.689090236447556</v>
       </c>
       <c r="R14">
-        <v>2.21497134481916</v>
+        <v>15.201812128028</v>
       </c>
       <c r="S14">
-        <v>0.0005389261009772684</v>
+        <v>0.0003181026528172332</v>
       </c>
       <c r="T14">
-        <v>0.0005389261009772684</v>
+        <v>0.0003181026528172332</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.629152343248192</v>
+        <v>0.3620696666666667</v>
       </c>
       <c r="H15">
-        <v>0.629152343248192</v>
+        <v>1.086209</v>
       </c>
       <c r="I15">
-        <v>0.01091275828627705</v>
+        <v>0.005145741717513645</v>
       </c>
       <c r="J15">
-        <v>0.01091275828627705</v>
+        <v>0.005145741717513645</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.2642187444079</v>
+        <v>16.41004366666667</v>
       </c>
       <c r="N15">
-        <v>16.2642187444079</v>
+        <v>49.230131</v>
       </c>
       <c r="O15">
-        <v>0.2281474372710313</v>
+        <v>0.2174544675497312</v>
       </c>
       <c r="P15">
-        <v>0.2281474372710313</v>
+        <v>0.2174544675497312</v>
       </c>
       <c r="Q15">
-        <v>10.2326713341454</v>
+        <v>5.941579040375444</v>
       </c>
       <c r="R15">
-        <v>10.2326713341454</v>
+        <v>53.474211363379</v>
       </c>
       <c r="S15">
-        <v>0.002489717836572321</v>
+        <v>0.001118964525330369</v>
       </c>
       <c r="T15">
-        <v>0.002489717836572321</v>
+        <v>0.001118964525330369</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.629152343248192</v>
+        <v>0.3620696666666667</v>
       </c>
       <c r="H16">
-        <v>0.629152343248192</v>
+        <v>1.086209</v>
       </c>
       <c r="I16">
-        <v>0.01091275828627705</v>
+        <v>0.005145741717513645</v>
       </c>
       <c r="J16">
-        <v>0.01091275828627705</v>
+        <v>0.005145741717513645</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.3925551656488</v>
+        <v>17.65804266666667</v>
       </c>
       <c r="N16">
-        <v>15.3925551656488</v>
+        <v>52.974128</v>
       </c>
       <c r="O16">
-        <v>0.2159201169932123</v>
+        <v>0.2339920809504103</v>
       </c>
       <c r="P16">
-        <v>0.2159201169932123</v>
+        <v>0.2339920809504103</v>
       </c>
       <c r="Q16">
-        <v>9.684262151045004</v>
+        <v>6.393441622305778</v>
       </c>
       <c r="R16">
-        <v>9.684262151045004</v>
+        <v>57.540974600752</v>
       </c>
       <c r="S16">
-        <v>0.002356284045891587</v>
+        <v>0.001204062812514356</v>
       </c>
       <c r="T16">
-        <v>0.002356284045891587</v>
+        <v>0.001204062812514356</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.629152343248192</v>
+        <v>0.3620696666666667</v>
       </c>
       <c r="H17">
-        <v>0.629152343248192</v>
+        <v>1.086209</v>
       </c>
       <c r="I17">
-        <v>0.01091275828627705</v>
+        <v>0.005145741717513645</v>
       </c>
       <c r="J17">
-        <v>0.01091275828627705</v>
+        <v>0.005145741717513645</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.1949830623744</v>
+        <v>13.44741733333333</v>
       </c>
       <c r="N17">
-        <v>13.1949830623744</v>
+        <v>40.342252</v>
       </c>
       <c r="O17">
-        <v>0.1850935244922506</v>
+        <v>0.1781958071250527</v>
       </c>
       <c r="P17">
-        <v>0.1850935244922506</v>
+        <v>0.1781958071250527</v>
       </c>
       <c r="Q17">
-        <v>8.301654512813059</v>
+        <v>4.868901911407556</v>
       </c>
       <c r="R17">
-        <v>8.301654512813059</v>
+        <v>43.820117202668</v>
       </c>
       <c r="S17">
-        <v>0.002019880893139032</v>
+        <v>0.0009169495986093989</v>
       </c>
       <c r="T17">
-        <v>0.002019880893139032</v>
+        <v>0.0009169495986093988</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.629152343248192</v>
+        <v>0.3620696666666667</v>
       </c>
       <c r="H18">
-        <v>0.629152343248192</v>
+        <v>1.086209</v>
       </c>
       <c r="I18">
-        <v>0.01091275828627705</v>
+        <v>0.005145741717513645</v>
       </c>
       <c r="J18">
-        <v>0.01091275828627705</v>
+        <v>0.005145741717513645</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.92480395946743</v>
+        <v>5.111344666666667</v>
       </c>
       <c r="N18">
-        <v>4.92480395946743</v>
+        <v>15.334034</v>
       </c>
       <c r="O18">
-        <v>0.06908302329621836</v>
+        <v>0.06773197899594202</v>
       </c>
       <c r="P18">
-        <v>0.06908302329621836</v>
+        <v>0.06773197899594202</v>
       </c>
       <c r="Q18">
-        <v>3.098451951136908</v>
+        <v>1.850662859678444</v>
       </c>
       <c r="R18">
-        <v>3.098451951136908</v>
+        <v>16.655965737106</v>
       </c>
       <c r="S18">
-        <v>0.0007538863349168775</v>
+        <v>0.0003485312699291768</v>
       </c>
       <c r="T18">
-        <v>0.0007538863349168775</v>
+        <v>0.0003485312699291768</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.629152343248192</v>
+        <v>0.3620696666666667</v>
       </c>
       <c r="H19">
-        <v>0.629152343248192</v>
+        <v>1.086209</v>
       </c>
       <c r="I19">
-        <v>0.01091275828627705</v>
+        <v>0.005145741717513645</v>
       </c>
       <c r="J19">
-        <v>0.01091275828627705</v>
+        <v>0.005145741717513645</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>17.9910685565018</v>
+        <v>18.172329</v>
       </c>
       <c r="N19">
-        <v>17.9910685565018</v>
+        <v>54.516987</v>
       </c>
       <c r="O19">
-        <v>0.2523709407403662</v>
+        <v>0.2408070451915031</v>
       </c>
       <c r="P19">
-        <v>0.2523709407403662</v>
+        <v>0.2408070451915031</v>
       </c>
       <c r="Q19">
-        <v>11.31912293986198</v>
+        <v>6.579649103587001</v>
       </c>
       <c r="R19">
-        <v>11.31912293986198</v>
+        <v>59.216841932283</v>
       </c>
       <c r="S19">
-        <v>0.002754063074779966</v>
+        <v>0.001239130858313111</v>
       </c>
       <c r="T19">
-        <v>0.002754063074779966</v>
+        <v>0.001239130858313111</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.1047203593136</v>
+        <v>0.7909673333333332</v>
       </c>
       <c r="H20">
-        <v>19.1047203593136</v>
+        <v>2.372902</v>
       </c>
       <c r="I20">
-        <v>0.3313747419770172</v>
+        <v>0.01124124437651646</v>
       </c>
       <c r="J20">
-        <v>0.3313747419770172</v>
+        <v>0.01124124437651646</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.52056440477308</v>
+        <v>4.665097333333334</v>
       </c>
       <c r="N20">
-        <v>3.52056440477308</v>
+        <v>13.995292</v>
       </c>
       <c r="O20">
-        <v>0.04938495720692135</v>
+        <v>0.06181862018736071</v>
       </c>
       <c r="P20">
-        <v>0.04938495720692135</v>
+        <v>0.06181862018736071</v>
       </c>
       <c r="Q20">
-        <v>67.25939846014303</v>
+        <v>3.689939597487111</v>
       </c>
       <c r="R20">
-        <v>67.25939846014303</v>
+        <v>33.209456377384</v>
       </c>
       <c r="S20">
-        <v>0.0163649274519896</v>
+        <v>0.0006949182165451753</v>
       </c>
       <c r="T20">
-        <v>0.0163649274519896</v>
+        <v>0.0006949182165451753</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19.1047203593136</v>
+        <v>0.7909673333333332</v>
       </c>
       <c r="H21">
-        <v>19.1047203593136</v>
+        <v>2.372902</v>
       </c>
       <c r="I21">
-        <v>0.3313747419770172</v>
+        <v>0.01124124437651646</v>
       </c>
       <c r="J21">
-        <v>0.3313747419770172</v>
+        <v>0.01124124437651646</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>16.2642187444079</v>
+        <v>16.41004366666667</v>
       </c>
       <c r="N21">
-        <v>16.2642187444079</v>
+        <v>49.230131</v>
       </c>
       <c r="O21">
-        <v>0.2281474372710313</v>
+        <v>0.2174544675497312</v>
       </c>
       <c r="P21">
-        <v>0.2281474372710313</v>
+        <v>0.2174544675497312</v>
       </c>
       <c r="Q21">
-        <v>310.7233509746194</v>
+        <v>12.97980847890689</v>
       </c>
       <c r="R21">
-        <v>310.7233509746194</v>
+        <v>116.818276310162</v>
       </c>
       <c r="S21">
-        <v>0.07560229815840572</v>
+        <v>0.002444458810491796</v>
       </c>
       <c r="T21">
-        <v>0.07560229815840572</v>
+        <v>0.002444458810491796</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>19.1047203593136</v>
+        <v>0.7909673333333332</v>
       </c>
       <c r="H22">
-        <v>19.1047203593136</v>
+        <v>2.372902</v>
       </c>
       <c r="I22">
-        <v>0.3313747419770172</v>
+        <v>0.01124124437651646</v>
       </c>
       <c r="J22">
-        <v>0.3313747419770172</v>
+        <v>0.01124124437651646</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>15.3925551656488</v>
+        <v>17.65804266666667</v>
       </c>
       <c r="N22">
-        <v>15.3925551656488</v>
+        <v>52.974128</v>
       </c>
       <c r="O22">
-        <v>0.2159201169932123</v>
+        <v>0.2339920809504103</v>
       </c>
       <c r="P22">
-        <v>0.2159201169932123</v>
+        <v>0.2339920809504103</v>
       </c>
       <c r="Q22">
-        <v>294.0704620550283</v>
+        <v>13.96693491993955</v>
       </c>
       <c r="R22">
-        <v>294.0704620550283</v>
+        <v>125.702414279456</v>
       </c>
       <c r="S22">
-        <v>0.07155047305627307</v>
+        <v>0.002630362164133183</v>
       </c>
       <c r="T22">
-        <v>0.07155047305627307</v>
+        <v>0.002630362164133184</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>19.1047203593136</v>
+        <v>0.7909673333333332</v>
       </c>
       <c r="H23">
-        <v>19.1047203593136</v>
+        <v>2.372902</v>
       </c>
       <c r="I23">
-        <v>0.3313747419770172</v>
+        <v>0.01124124437651646</v>
       </c>
       <c r="J23">
-        <v>0.3313747419770172</v>
+        <v>0.01124124437651646</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>13.1949830623744</v>
+        <v>13.44741733333333</v>
       </c>
       <c r="N23">
-        <v>13.1949830623744</v>
+        <v>40.342252</v>
       </c>
       <c r="O23">
-        <v>0.1850935244922506</v>
+        <v>0.1781958071250527</v>
       </c>
       <c r="P23">
-        <v>0.1850935244922506</v>
+        <v>0.1781958071250527</v>
       </c>
       <c r="Q23">
-        <v>252.0864615525423</v>
+        <v>10.63646782836711</v>
       </c>
       <c r="R23">
-        <v>252.0864615525423</v>
+        <v>95.72821045530399</v>
       </c>
       <c r="S23">
-        <v>0.06133531892023624</v>
+        <v>0.00200314261476331</v>
       </c>
       <c r="T23">
-        <v>0.06133531892023624</v>
+        <v>0.00200314261476331</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>19.1047203593136</v>
+        <v>0.7909673333333332</v>
       </c>
       <c r="H24">
-        <v>19.1047203593136</v>
+        <v>2.372902</v>
       </c>
       <c r="I24">
-        <v>0.3313747419770172</v>
+        <v>0.01124124437651646</v>
       </c>
       <c r="J24">
-        <v>0.3313747419770172</v>
+        <v>0.01124124437651646</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.92480395946743</v>
+        <v>5.111344666666667</v>
       </c>
       <c r="N24">
-        <v>4.92480395946743</v>
+        <v>15.334034</v>
       </c>
       <c r="O24">
-        <v>0.06908302329621836</v>
+        <v>0.06773197899594202</v>
       </c>
       <c r="P24">
-        <v>0.06908302329621836</v>
+        <v>0.06773197899594202</v>
       </c>
       <c r="Q24">
-        <v>94.08700247006563</v>
+        <v>4.042906660740888</v>
       </c>
       <c r="R24">
-        <v>94.08700247006563</v>
+        <v>36.386159946668</v>
       </c>
       <c r="S24">
-        <v>0.02289236901977662</v>
+        <v>0.000761391727998464</v>
       </c>
       <c r="T24">
-        <v>0.02289236901977662</v>
+        <v>0.0007613917279984641</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.7909673333333332</v>
+      </c>
+      <c r="H25">
+        <v>2.372902</v>
+      </c>
+      <c r="I25">
+        <v>0.01124124437651646</v>
+      </c>
+      <c r="J25">
+        <v>0.01124124437651646</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>18.172329</v>
+      </c>
+      <c r="N25">
+        <v>54.516987</v>
+      </c>
+      <c r="O25">
+        <v>0.2408070451915031</v>
+      </c>
+      <c r="P25">
+        <v>0.2408070451915031</v>
+      </c>
+      <c r="Q25">
+        <v>14.373718609586</v>
+      </c>
+      <c r="R25">
+        <v>129.363467486274</v>
+      </c>
+      <c r="S25">
+        <v>0.002706970842584528</v>
+      </c>
+      <c r="T25">
+        <v>0.002706970842584528</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.1402096666666666</v>
+      </c>
+      <c r="H26">
+        <v>0.420629</v>
+      </c>
+      <c r="I26">
+        <v>0.001992662731478055</v>
+      </c>
+      <c r="J26">
+        <v>0.001992662731478056</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.665097333333334</v>
+      </c>
+      <c r="N26">
+        <v>13.995292</v>
+      </c>
+      <c r="O26">
+        <v>0.06181862018736071</v>
+      </c>
+      <c r="P26">
+        <v>0.06181862018736071</v>
+      </c>
+      <c r="Q26">
+        <v>0.6540917420742222</v>
+      </c>
+      <c r="R26">
+        <v>5.886825678668</v>
+      </c>
+      <c r="S26">
+        <v>0.0001231836605587506</v>
+      </c>
+      <c r="T26">
+        <v>0.0001231836605587507</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.1402096666666666</v>
+      </c>
+      <c r="H27">
+        <v>0.420629</v>
+      </c>
+      <c r="I27">
+        <v>0.001992662731478055</v>
+      </c>
+      <c r="J27">
+        <v>0.001992662731478056</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>16.41004366666667</v>
+      </c>
+      <c r="N27">
+        <v>49.230131</v>
+      </c>
+      <c r="O27">
+        <v>0.2174544675497312</v>
+      </c>
+      <c r="P27">
+        <v>0.2174544675497312</v>
+      </c>
+      <c r="Q27">
+        <v>2.300846752488777</v>
+      </c>
+      <c r="R27">
+        <v>20.707620772399</v>
+      </c>
+      <c r="S27">
+        <v>0.0004333134132797534</v>
+      </c>
+      <c r="T27">
+        <v>0.0004333134132797535</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.1402096666666666</v>
+      </c>
+      <c r="H28">
+        <v>0.420629</v>
+      </c>
+      <c r="I28">
+        <v>0.001992662731478055</v>
+      </c>
+      <c r="J28">
+        <v>0.001992662731478056</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>17.65804266666667</v>
+      </c>
+      <c r="N28">
+        <v>52.974128</v>
+      </c>
+      <c r="O28">
+        <v>0.2339920809504103</v>
+      </c>
+      <c r="P28">
+        <v>0.2339920809504103</v>
+      </c>
+      <c r="Q28">
+        <v>2.475828276279111</v>
+      </c>
+      <c r="R28">
+        <v>22.282454486512</v>
+      </c>
+      <c r="S28">
+        <v>0.0004662672991708789</v>
+      </c>
+      <c r="T28">
+        <v>0.000466267299170879</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.1402096666666666</v>
+      </c>
+      <c r="H29">
+        <v>0.420629</v>
+      </c>
+      <c r="I29">
+        <v>0.001992662731478055</v>
+      </c>
+      <c r="J29">
+        <v>0.001992662731478056</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>13.44741733333333</v>
+      </c>
+      <c r="N29">
+        <v>40.342252</v>
+      </c>
+      <c r="O29">
+        <v>0.1781958071250527</v>
+      </c>
+      <c r="P29">
+        <v>0.1781958071250527</v>
+      </c>
+      <c r="Q29">
+        <v>1.885457901834222</v>
+      </c>
+      <c r="R29">
+        <v>16.969121116508</v>
+      </c>
+      <c r="S29">
+        <v>0.0003550841437637442</v>
+      </c>
+      <c r="T29">
+        <v>0.0003550841437637443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.1402096666666666</v>
+      </c>
+      <c r="H30">
+        <v>0.420629</v>
+      </c>
+      <c r="I30">
+        <v>0.001992662731478055</v>
+      </c>
+      <c r="J30">
+        <v>0.001992662731478056</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>5.111344666666667</v>
+      </c>
+      <c r="N30">
+        <v>15.334034</v>
+      </c>
+      <c r="O30">
+        <v>0.06773197899594202</v>
+      </c>
+      <c r="P30">
+        <v>0.06773197899594202</v>
+      </c>
+      <c r="Q30">
+        <v>0.7166599319317777</v>
+      </c>
+      <c r="R30">
+        <v>6.449939387386</v>
+      </c>
+      <c r="S30">
+        <v>0.0001349669902744681</v>
+      </c>
+      <c r="T30">
+        <v>0.0001349669902744681</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.1402096666666666</v>
+      </c>
+      <c r="H31">
+        <v>0.420629</v>
+      </c>
+      <c r="I31">
+        <v>0.001992662731478055</v>
+      </c>
+      <c r="J31">
+        <v>0.001992662731478056</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>18.172329</v>
+      </c>
+      <c r="N31">
+        <v>54.516987</v>
+      </c>
+      <c r="O31">
+        <v>0.2408070451915031</v>
+      </c>
+      <c r="P31">
+        <v>0.2408070451915031</v>
+      </c>
+      <c r="Q31">
+        <v>2.547936191647</v>
+      </c>
+      <c r="R31">
+        <v>22.931425724823</v>
+      </c>
+      <c r="S31">
+        <v>0.00047984722443046</v>
+      </c>
+      <c r="T31">
+        <v>0.0004798472244304601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>20.32321033333334</v>
+      </c>
+      <c r="H32">
+        <v>60.96963100000001</v>
+      </c>
+      <c r="I32">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="J32">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>4.665097333333334</v>
+      </c>
+      <c r="N32">
+        <v>13.995292</v>
+      </c>
+      <c r="O32">
+        <v>0.06181862018736071</v>
+      </c>
+      <c r="P32">
+        <v>0.06181862018736071</v>
+      </c>
+      <c r="Q32">
+        <v>94.80975433080579</v>
+      </c>
+      <c r="R32">
+        <v>853.2877889772521</v>
+      </c>
+      <c r="S32">
+        <v>0.01785531270905307</v>
+      </c>
+      <c r="T32">
+        <v>0.01785531270905307</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>20.32321033333334</v>
+      </c>
+      <c r="H33">
+        <v>60.96963100000001</v>
+      </c>
+      <c r="I33">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="J33">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>16.41004366666667</v>
+      </c>
+      <c r="N33">
+        <v>49.230131</v>
+      </c>
+      <c r="O33">
+        <v>0.2174544675497312</v>
+      </c>
+      <c r="P33">
+        <v>0.2174544675497312</v>
+      </c>
+      <c r="Q33">
+        <v>333.5047690168512</v>
+      </c>
+      <c r="R33">
+        <v>3001.542921151661</v>
+      </c>
+      <c r="S33">
+        <v>0.06280822034385901</v>
+      </c>
+      <c r="T33">
+        <v>0.06280822034385901</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>20.32321033333334</v>
+      </c>
+      <c r="H34">
+        <v>60.96963100000001</v>
+      </c>
+      <c r="I34">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="J34">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>17.65804266666667</v>
+      </c>
+      <c r="N34">
+        <v>52.974128</v>
+      </c>
+      <c r="O34">
+        <v>0.2339920809504103</v>
+      </c>
+      <c r="P34">
+        <v>0.2339920809504103</v>
+      </c>
+      <c r="Q34">
+        <v>358.8681151896409</v>
+      </c>
+      <c r="R34">
+        <v>3229.813036706768</v>
+      </c>
+      <c r="S34">
+        <v>0.06758484359807597</v>
+      </c>
+      <c r="T34">
+        <v>0.06758484359807597</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>19.1047203593136</v>
-      </c>
-      <c r="H25">
-        <v>19.1047203593136</v>
-      </c>
-      <c r="I25">
-        <v>0.3313747419770172</v>
-      </c>
-      <c r="J25">
-        <v>0.3313747419770172</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>17.9910685565018</v>
-      </c>
-      <c r="N25">
-        <v>17.9910685565018</v>
-      </c>
-      <c r="O25">
-        <v>0.2523709407403662</v>
-      </c>
-      <c r="P25">
-        <v>0.2523709407403662</v>
-      </c>
-      <c r="Q25">
-        <v>343.7143337372067</v>
-      </c>
-      <c r="R25">
-        <v>343.7143337372067</v>
-      </c>
-      <c r="S25">
-        <v>0.08362935537033594</v>
-      </c>
-      <c r="T25">
-        <v>0.08362935537033594</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>20.32321033333334</v>
+      </c>
+      <c r="H35">
+        <v>60.96963100000001</v>
+      </c>
+      <c r="I35">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="J35">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>13.44741733333333</v>
+      </c>
+      <c r="N35">
+        <v>40.342252</v>
+      </c>
+      <c r="O35">
+        <v>0.1781958071250527</v>
+      </c>
+      <c r="P35">
+        <v>0.1781958071250527</v>
+      </c>
+      <c r="Q35">
+        <v>273.2946909054458</v>
+      </c>
+      <c r="R35">
+        <v>2459.652218149012</v>
+      </c>
+      <c r="S35">
+        <v>0.05146898863185002</v>
+      </c>
+      <c r="T35">
+        <v>0.05146898863185001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>20.32321033333334</v>
+      </c>
+      <c r="H36">
+        <v>60.96963100000001</v>
+      </c>
+      <c r="I36">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="J36">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>5.111344666666667</v>
+      </c>
+      <c r="N36">
+        <v>15.334034</v>
+      </c>
+      <c r="O36">
+        <v>0.06773197899594202</v>
+      </c>
+      <c r="P36">
+        <v>0.06773197899594202</v>
+      </c>
+      <c r="Q36">
+        <v>103.8789327468282</v>
+      </c>
+      <c r="R36">
+        <v>934.9103947214542</v>
+      </c>
+      <c r="S36">
+        <v>0.01956329115257129</v>
+      </c>
+      <c r="T36">
+        <v>0.01956329115257129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>20.32321033333334</v>
+      </c>
+      <c r="H37">
+        <v>60.96963100000001</v>
+      </c>
+      <c r="I37">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="J37">
+        <v>0.2888338926837407</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>18.172329</v>
+      </c>
+      <c r="N37">
+        <v>54.516987</v>
+      </c>
+      <c r="O37">
+        <v>0.2408070451915031</v>
+      </c>
+      <c r="P37">
+        <v>0.2408070451915031</v>
+      </c>
+      <c r="Q37">
+        <v>369.3200645135331</v>
+      </c>
+      <c r="R37">
+        <v>3323.880580621797</v>
+      </c>
+      <c r="S37">
+        <v>0.06955323624833129</v>
+      </c>
+      <c r="T37">
+        <v>0.06955323624833128</v>
       </c>
     </row>
   </sheetData>
